--- a/tools/Excel2Json/sheet/RpcError.xlsx
+++ b/tools/Excel2Json/sheet/RpcError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11190"/>
+    <workbookView windowWidth="21000" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="RpcError" sheetId="1" r:id="rId1"/>
@@ -87,10 +87,10 @@
     <t>_desc</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>showstyle</t>
+    <t>sdesc</t>
+  </si>
+  <si>
+    <t>ishowstyle</t>
   </si>
   <si>
     <t>OK</t>
@@ -185,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -213,7 +213,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,31 +226,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,6 +272,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -313,37 +298,52 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,13 +393,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,157 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,17 +655,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -678,6 +667,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,21 +701,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -720,13 +709,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -738,133 +738,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,7 +1284,7 @@
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/tools/Excel2Json/sheet/RpcError.xlsx
+++ b/tools/Excel2Json/sheet/RpcError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11790"/>
+    <workbookView windowWidth="28800" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="RpcError" sheetId="1" r:id="rId1"/>
@@ -212,58 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -272,9 +220,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +311,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -298,7 +335,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,44 +343,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,19 +393,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,13 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,13 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,19 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,43 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,36 +561,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -619,15 +619,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -657,16 +648,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,17 +683,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,8 +695,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,10 +717,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -738,137 +729,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -885,19 +876,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1281,21 +1269,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="21.5416666666667" customWidth="1"/>
-    <col min="3" max="3" width="16.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="36.0916666666667" customWidth="1"/>
+    <col min="2" max="2" width="21.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="16.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="36.0909090909091" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="15.1833333333333" customWidth="1"/>
+    <col min="11" max="11" width="15.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1329,15 +1316,15 @@
     <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" ht="14.25" spans="1:1">
+    <row r="8" spans="1:1">
       <c r="A8" s="3"/>
     </row>
-    <row r="9" ht="14.25" spans="1:1">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1347,32 +1334,30 @@
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
@@ -1398,7 +1383,7 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
@@ -1415,7 +1400,7 @@
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
@@ -1432,7 +1417,7 @@
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -1449,7 +1434,7 @@
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
       <c r="D16" t="s">
@@ -1466,7 +1451,7 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>23</v>
       </c>
       <c r="D17" t="s">
@@ -1483,7 +1468,7 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D18" t="s">
@@ -1500,7 +1485,7 @@
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
@@ -1517,7 +1502,7 @@
       <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
@@ -1534,7 +1519,7 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
@@ -1551,7 +1536,7 @@
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D22" t="s">
@@ -1568,7 +1553,7 @@
       <c r="B23" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D23" t="s">
@@ -1585,7 +1570,7 @@
       <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
@@ -1602,7 +1587,7 @@
       <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D25" t="s">
@@ -1619,7 +1604,7 @@
       <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>41</v>
       </c>
       <c r="D26" t="s">
